--- a/Document/noise measurement and analysis.xlsx
+++ b/Document/noise measurement and analysis.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\AndroidJavaProject\noise measurement and analysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\AndroidJavaProject\noise measurement and analysis\Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DA30D26-07E6-4874-A68F-CC1A159F20CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{611975D7-4F0A-4C26-9C0E-6556F38C9095}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{FE7EABDE-8B45-4A50-9432-96A158BB1D81}"/>
   </bookViews>
@@ -819,8 +819,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9753600" y="1504950"/>
-          <a:ext cx="3267075" cy="657225"/>
+          <a:off x="9681882" y="1504950"/>
+          <a:ext cx="3244664" cy="657225"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2658,14 +2658,14 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>77391</xdr:rowOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>99805</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>136714</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -2680,7 +2680,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4416799" y="2553891"/>
+          <a:off x="4416799" y="1242805"/>
           <a:ext cx="2882713" cy="1941909"/>
           <a:chOff x="4437917" y="2553891"/>
           <a:chExt cx="2897798" cy="1941909"/>
@@ -3432,22 +3432,88 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>10845</xdr:colOff>
+      <xdr:colOff>78080</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>168087</xdr:rowOff>
+      <xdr:rowOff>190499</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>228598</xdr:colOff>
+      <xdr:colOff>295833</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>101412</xdr:rowOff>
+      <xdr:rowOff>123824</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="86" name="Rectangle 85">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E116EEB-974F-47B5-B3E7-EDB8B6623CCA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12595051" y="761999"/>
+          <a:ext cx="3243341" cy="5648325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>243166</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>9034</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>100291</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>45943</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="103" name="Group 102">
+        <xdr:cNvPr id="87" name="Group 86">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3348D70D-4D9D-4E0C-9FF3-BED0FB9B530F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A5BE6DC-7A64-4066-9D7F-A5067F4726E9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3455,18 +3521,18 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="12527816" y="739587"/>
-          <a:ext cx="3243341" cy="5648325"/>
-          <a:chOff x="12113199" y="571499"/>
-          <a:chExt cx="3243341" cy="5648325"/>
+          <a:off x="12760137" y="1342534"/>
+          <a:ext cx="2882713" cy="1941909"/>
+          <a:chOff x="4437917" y="2553891"/>
+          <a:chExt cx="2897798" cy="1941909"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="86" name="Rectangle 85">
+          <xdr:cNvPr id="88" name="Rectangle 87">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E116EEB-974F-47B5-B3E7-EDB8B6623CCA}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84B0CF9F-08AA-49C5-9CD8-D4160FCFCB2C}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3474,8 +3540,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="12113199" y="571499"/>
-            <a:ext cx="3243341" cy="5648325"/>
+            <a:off x="4437917" y="2553891"/>
+            <a:ext cx="2897798" cy="1941909"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -3486,6 +3552,11 @@
               <a:lumOff val="15000"/>
             </a:schemeClr>
           </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:ln>
         </xdr:spPr>
         <xdr:style>
           <a:lnRef idx="2">
@@ -3514,10 +3585,10 @@
       </xdr:sp>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="87" name="Group 86">
+          <xdr:cNvPr id="89" name="Group 88">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A5BE6DC-7A64-4066-9D7F-A5067F4726E9}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B3A7377-C986-496C-886D-49CD4C9CBC73}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3525,18 +3596,18 @@
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
           <a:xfrm>
-            <a:off x="12311903" y="2496741"/>
-            <a:ext cx="2882713" cy="1941909"/>
-            <a:chOff x="4437917" y="2553891"/>
-            <a:chExt cx="2897798" cy="1941909"/>
+            <a:off x="4446082" y="2562225"/>
+            <a:ext cx="2889632" cy="343830"/>
+            <a:chOff x="4467226" y="2562225"/>
+            <a:chExt cx="2895597" cy="343830"/>
           </a:xfrm>
         </xdr:grpSpPr>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="88" name="Rectangle 87">
+            <xdr:cNvPr id="101" name="Rectangle 100">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84B0CF9F-08AA-49C5-9CD8-D4160FCFCB2C}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17324E91-5D33-4E41-B02E-0BDB3AFC0EE5}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3544,18 +3615,13 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="4437917" y="2553891"/>
-              <a:ext cx="2897798" cy="1941909"/>
+              <a:off x="4467226" y="2562225"/>
+              <a:ext cx="1209105" cy="343830"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="85000"/>
-                <a:lumOff val="15000"/>
-              </a:schemeClr>
-            </a:solidFill>
+            <a:noFill/>
             <a:ln>
               <a:solidFill>
                 <a:schemeClr val="bg1"/>
@@ -3583,599 +3649,36 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l"/>
-              <a:endParaRPr lang="en-US" sz="1100"/>
+              <a:r>
+                <a:rPr lang="en-US" sz="950">
+                  <a:solidFill>
+                    <a:schemeClr val="bg1"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>Nosie</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="950" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="bg1"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t> name:</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="950">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+              </a:endParaRPr>
             </a:p>
           </xdr:txBody>
         </xdr:sp>
-        <xdr:grpSp>
-          <xdr:nvGrpSpPr>
-            <xdr:cNvPr id="89" name="Group 88">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="102" name="Rectangle 101">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B3A7377-C986-496C-886D-49CD4C9CBC73}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvGrpSpPr/>
-          </xdr:nvGrpSpPr>
-          <xdr:grpSpPr>
-            <a:xfrm>
-              <a:off x="4446082" y="2562225"/>
-              <a:ext cx="2889632" cy="343830"/>
-              <a:chOff x="4467226" y="2562225"/>
-              <a:chExt cx="2895597" cy="343830"/>
-            </a:xfrm>
-          </xdr:grpSpPr>
-          <xdr:sp macro="" textlink="">
-            <xdr:nvSpPr>
-              <xdr:cNvPr id="101" name="Rectangle 100">
-                <a:extLst>
-                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17324E91-5D33-4E41-B02E-0BDB3AFC0EE5}"/>
-                  </a:ext>
-                </a:extLst>
-              </xdr:cNvPr>
-              <xdr:cNvSpPr/>
-            </xdr:nvSpPr>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="4467226" y="2562225"/>
-                <a:ext cx="1209105" cy="343830"/>
-              </a:xfrm>
-              <a:prstGeom prst="rect">
-                <a:avLst/>
-              </a:prstGeom>
-              <a:noFill/>
-              <a:ln>
-                <a:solidFill>
-                  <a:schemeClr val="bg1"/>
-                </a:solidFill>
-              </a:ln>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="2">
-                <a:schemeClr val="accent1">
-                  <a:shade val="50000"/>
-                </a:schemeClr>
-              </a:lnRef>
-              <a:fillRef idx="1">
-                <a:schemeClr val="accent1"/>
-              </a:fillRef>
-              <a:effectRef idx="0">
-                <a:schemeClr val="accent1"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="lt1"/>
-              </a:fontRef>
-            </xdr:style>
-            <xdr:txBody>
-              <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr algn="l"/>
-                <a:r>
-                  <a:rPr lang="en-US" sz="950">
-                    <a:solidFill>
-                      <a:schemeClr val="bg1"/>
-                    </a:solidFill>
-                  </a:rPr>
-                  <a:t>Nosie</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" sz="950" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="bg1"/>
-                    </a:solidFill>
-                  </a:rPr>
-                  <a:t> name:</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US" sz="950">
-                  <a:solidFill>
-                    <a:schemeClr val="bg1"/>
-                  </a:solidFill>
-                </a:endParaRPr>
-              </a:p>
-            </xdr:txBody>
-          </xdr:sp>
-          <xdr:sp macro="" textlink="">
-            <xdr:nvSpPr>
-              <xdr:cNvPr id="102" name="Rectangle 101">
-                <a:extLst>
-                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0C9BD1A-5952-4EC6-A3BA-6785224BE29A}"/>
-                  </a:ext>
-                </a:extLst>
-              </xdr:cNvPr>
-              <xdr:cNvSpPr/>
-            </xdr:nvSpPr>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="5665450" y="2562225"/>
-                <a:ext cx="1697373" cy="343830"/>
-              </a:xfrm>
-              <a:prstGeom prst="rect">
-                <a:avLst/>
-              </a:prstGeom>
-              <a:noFill/>
-              <a:ln>
-                <a:solidFill>
-                  <a:schemeClr val="bg1"/>
-                </a:solidFill>
-              </a:ln>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="2">
-                <a:schemeClr val="accent1">
-                  <a:shade val="50000"/>
-                </a:schemeClr>
-              </a:lnRef>
-              <a:fillRef idx="1">
-                <a:schemeClr val="accent1"/>
-              </a:fillRef>
-              <a:effectRef idx="0">
-                <a:schemeClr val="accent1"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="lt1"/>
-              </a:fontRef>
-            </xdr:style>
-            <xdr:txBody>
-              <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr algn="l"/>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1100">
-                    <a:solidFill>
-                      <a:schemeClr val="bg1"/>
-                    </a:solidFill>
-                  </a:rPr>
-                  <a:t>noise</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1100" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="bg1"/>
-                    </a:solidFill>
-                  </a:rPr>
-                  <a:t> 1</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US" sz="1100">
-                  <a:solidFill>
-                    <a:schemeClr val="bg1"/>
-                  </a:solidFill>
-                </a:endParaRPr>
-              </a:p>
-            </xdr:txBody>
-          </xdr:sp>
-        </xdr:grpSp>
-        <xdr:grpSp>
-          <xdr:nvGrpSpPr>
-            <xdr:cNvPr id="90" name="Group 89">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1406A154-8FD7-4313-B062-2BCD84C82FF7}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvGrpSpPr/>
-          </xdr:nvGrpSpPr>
-          <xdr:grpSpPr>
-            <a:xfrm>
-              <a:off x="4447443" y="2909207"/>
-              <a:ext cx="2888271" cy="343830"/>
-              <a:chOff x="4467226" y="2562225"/>
-              <a:chExt cx="2895598" cy="343830"/>
-            </a:xfrm>
-          </xdr:grpSpPr>
-          <xdr:sp macro="" textlink="">
-            <xdr:nvSpPr>
-              <xdr:cNvPr id="99" name="Rectangle 98">
-                <a:extLst>
-                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24717A38-74EA-499F-82D2-F5C9D9731911}"/>
-                  </a:ext>
-                </a:extLst>
-              </xdr:cNvPr>
-              <xdr:cNvSpPr/>
-            </xdr:nvSpPr>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="4467226" y="2562225"/>
-                <a:ext cx="1197428" cy="343830"/>
-              </a:xfrm>
-              <a:prstGeom prst="rect">
-                <a:avLst/>
-              </a:prstGeom>
-              <a:noFill/>
-              <a:ln>
-                <a:solidFill>
-                  <a:schemeClr val="bg1"/>
-                </a:solidFill>
-              </a:ln>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="2">
-                <a:schemeClr val="accent1">
-                  <a:shade val="50000"/>
-                </a:schemeClr>
-              </a:lnRef>
-              <a:fillRef idx="1">
-                <a:schemeClr val="accent1"/>
-              </a:fillRef>
-              <a:effectRef idx="0">
-                <a:schemeClr val="accent1"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="lt1"/>
-              </a:fontRef>
-            </xdr:style>
-            <xdr:txBody>
-              <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr algn="l"/>
-                <a:r>
-                  <a:rPr lang="en-US" sz="950">
-                    <a:solidFill>
-                      <a:schemeClr val="bg1"/>
-                    </a:solidFill>
-                  </a:rPr>
-                  <a:t>Noise</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" sz="950" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="bg1"/>
-                    </a:solidFill>
-                  </a:rPr>
-                  <a:t> value:</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US" sz="950">
-                  <a:solidFill>
-                    <a:schemeClr val="bg1"/>
-                  </a:solidFill>
-                </a:endParaRPr>
-              </a:p>
-            </xdr:txBody>
-          </xdr:sp>
-          <xdr:sp macro="" textlink="">
-            <xdr:nvSpPr>
-              <xdr:cNvPr id="100" name="Rectangle 99">
-                <a:extLst>
-                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B52A462-C713-4738-A99C-612FE2070748}"/>
-                  </a:ext>
-                </a:extLst>
-              </xdr:cNvPr>
-              <xdr:cNvSpPr/>
-            </xdr:nvSpPr>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="5667375" y="2562225"/>
-                <a:ext cx="1695449" cy="343830"/>
-              </a:xfrm>
-              <a:prstGeom prst="rect">
-                <a:avLst/>
-              </a:prstGeom>
-              <a:noFill/>
-              <a:ln>
-                <a:solidFill>
-                  <a:schemeClr val="bg1"/>
-                </a:solidFill>
-              </a:ln>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="2">
-                <a:schemeClr val="accent1">
-                  <a:shade val="50000"/>
-                </a:schemeClr>
-              </a:lnRef>
-              <a:fillRef idx="1">
-                <a:schemeClr val="accent1"/>
-              </a:fillRef>
-              <a:effectRef idx="0">
-                <a:schemeClr val="accent1"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="lt1"/>
-              </a:fontRef>
-            </xdr:style>
-            <xdr:txBody>
-              <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr algn="l"/>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1100">
-                    <a:solidFill>
-                      <a:schemeClr val="bg1"/>
-                    </a:solidFill>
-                  </a:rPr>
-                  <a:t>100 (dB)</a:t>
-                </a:r>
-              </a:p>
-            </xdr:txBody>
-          </xdr:sp>
-        </xdr:grpSp>
-        <xdr:grpSp>
-          <xdr:nvGrpSpPr>
-            <xdr:cNvPr id="91" name="Group 90">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A38BA896-E879-4331-B1A4-CA2E460FE7C5}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvGrpSpPr/>
-          </xdr:nvGrpSpPr>
-          <xdr:grpSpPr>
-            <a:xfrm>
-              <a:off x="4447443" y="3267075"/>
-              <a:ext cx="2888271" cy="343830"/>
-              <a:chOff x="4467226" y="2562225"/>
-              <a:chExt cx="2895598" cy="343830"/>
-            </a:xfrm>
-          </xdr:grpSpPr>
-          <xdr:sp macro="" textlink="">
-            <xdr:nvSpPr>
-              <xdr:cNvPr id="97" name="Rectangle 96">
-                <a:extLst>
-                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2756F97C-29F0-4639-98E7-C6B3A8BB2372}"/>
-                  </a:ext>
-                </a:extLst>
-              </xdr:cNvPr>
-              <xdr:cNvSpPr/>
-            </xdr:nvSpPr>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="4467226" y="2562225"/>
-                <a:ext cx="1197428" cy="343830"/>
-              </a:xfrm>
-              <a:prstGeom prst="rect">
-                <a:avLst/>
-              </a:prstGeom>
-              <a:noFill/>
-              <a:ln>
-                <a:solidFill>
-                  <a:schemeClr val="bg1"/>
-                </a:solidFill>
-              </a:ln>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="2">
-                <a:schemeClr val="accent1">
-                  <a:shade val="50000"/>
-                </a:schemeClr>
-              </a:lnRef>
-              <a:fillRef idx="1">
-                <a:schemeClr val="accent1"/>
-              </a:fillRef>
-              <a:effectRef idx="0">
-                <a:schemeClr val="accent1"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="lt1"/>
-              </a:fontRef>
-            </xdr:style>
-            <xdr:txBody>
-              <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr algn="l"/>
-                <a:r>
-                  <a:rPr lang="en-US" sz="950">
-                    <a:solidFill>
-                      <a:schemeClr val="bg1"/>
-                    </a:solidFill>
-                  </a:rPr>
-                  <a:t>Measurement time:</a:t>
-                </a:r>
-              </a:p>
-            </xdr:txBody>
-          </xdr:sp>
-          <xdr:sp macro="" textlink="">
-            <xdr:nvSpPr>
-              <xdr:cNvPr id="98" name="Rectangle 97">
-                <a:extLst>
-                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72DB2C7D-0891-4B05-94D8-7F7B66C028BF}"/>
-                  </a:ext>
-                </a:extLst>
-              </xdr:cNvPr>
-              <xdr:cNvSpPr/>
-            </xdr:nvSpPr>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="5664654" y="2562225"/>
-                <a:ext cx="1698170" cy="343830"/>
-              </a:xfrm>
-              <a:prstGeom prst="rect">
-                <a:avLst/>
-              </a:prstGeom>
-              <a:noFill/>
-              <a:ln>
-                <a:solidFill>
-                  <a:schemeClr val="bg1"/>
-                </a:solidFill>
-              </a:ln>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="2">
-                <a:schemeClr val="accent1">
-                  <a:shade val="50000"/>
-                </a:schemeClr>
-              </a:lnRef>
-              <a:fillRef idx="1">
-                <a:schemeClr val="accent1"/>
-              </a:fillRef>
-              <a:effectRef idx="0">
-                <a:schemeClr val="accent1"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="lt1"/>
-              </a:fontRef>
-            </xdr:style>
-            <xdr:txBody>
-              <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr algn="l"/>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1100">
-                    <a:solidFill>
-                      <a:schemeClr val="bg1"/>
-                    </a:solidFill>
-                  </a:rPr>
-                  <a:t>20 (s)</a:t>
-                </a:r>
-              </a:p>
-            </xdr:txBody>
-          </xdr:sp>
-        </xdr:grpSp>
-        <xdr:grpSp>
-          <xdr:nvGrpSpPr>
-            <xdr:cNvPr id="92" name="Group 91">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9CBFB61E-3E16-468B-99ED-CEB99D824721}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvGrpSpPr/>
-          </xdr:nvGrpSpPr>
-          <xdr:grpSpPr>
-            <a:xfrm>
-              <a:off x="4447443" y="3615418"/>
-              <a:ext cx="2888271" cy="343830"/>
-              <a:chOff x="4467226" y="2562225"/>
-              <a:chExt cx="2895598" cy="343830"/>
-            </a:xfrm>
-          </xdr:grpSpPr>
-          <xdr:sp macro="" textlink="">
-            <xdr:nvSpPr>
-              <xdr:cNvPr id="95" name="Rectangle 94">
-                <a:extLst>
-                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C339AE2B-9016-45B1-BCDA-623576293E32}"/>
-                  </a:ext>
-                </a:extLst>
-              </xdr:cNvPr>
-              <xdr:cNvSpPr/>
-            </xdr:nvSpPr>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="4467226" y="2562225"/>
-                <a:ext cx="1197428" cy="343830"/>
-              </a:xfrm>
-              <a:prstGeom prst="rect">
-                <a:avLst/>
-              </a:prstGeom>
-              <a:noFill/>
-              <a:ln>
-                <a:solidFill>
-                  <a:schemeClr val="bg1"/>
-                </a:solidFill>
-              </a:ln>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="2">
-                <a:schemeClr val="accent1">
-                  <a:shade val="50000"/>
-                </a:schemeClr>
-              </a:lnRef>
-              <a:fillRef idx="1">
-                <a:schemeClr val="accent1"/>
-              </a:fillRef>
-              <a:effectRef idx="0">
-                <a:schemeClr val="accent1"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="lt1"/>
-              </a:fontRef>
-            </xdr:style>
-            <xdr:txBody>
-              <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr algn="l"/>
-                <a:r>
-                  <a:rPr lang="en-US" sz="950">
-                    <a:solidFill>
-                      <a:schemeClr val="bg1"/>
-                    </a:solidFill>
-                  </a:rPr>
-                  <a:t>Current time:</a:t>
-                </a:r>
-              </a:p>
-            </xdr:txBody>
-          </xdr:sp>
-          <xdr:sp macro="" textlink="">
-            <xdr:nvSpPr>
-              <xdr:cNvPr id="96" name="Rectangle 95">
-                <a:extLst>
-                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E60CE25E-E00E-4F87-9E95-24AF38CFFE95}"/>
-                  </a:ext>
-                </a:extLst>
-              </xdr:cNvPr>
-              <xdr:cNvSpPr/>
-            </xdr:nvSpPr>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="5664654" y="2562225"/>
-                <a:ext cx="1698170" cy="343830"/>
-              </a:xfrm>
-              <a:prstGeom prst="rect">
-                <a:avLst/>
-              </a:prstGeom>
-              <a:noFill/>
-              <a:ln>
-                <a:solidFill>
-                  <a:schemeClr val="bg1"/>
-                </a:solidFill>
-              </a:ln>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="2">
-                <a:schemeClr val="accent1">
-                  <a:shade val="50000"/>
-                </a:schemeClr>
-              </a:lnRef>
-              <a:fillRef idx="1">
-                <a:schemeClr val="accent1"/>
-              </a:fillRef>
-              <a:effectRef idx="0">
-                <a:schemeClr val="accent1"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="lt1"/>
-              </a:fontRef>
-            </xdr:style>
-            <xdr:txBody>
-              <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr algn="l"/>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1100">
-                    <a:solidFill>
-                      <a:schemeClr val="bg1"/>
-                    </a:solidFill>
-                  </a:rPr>
-                  <a:t>19:20:00 13/09/2021</a:t>
-                </a:r>
-              </a:p>
-            </xdr:txBody>
-          </xdr:sp>
-        </xdr:grpSp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="93" name="Rectangle: Rounded Corners 92">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9EF5BF6A-0B69-46D8-9BCA-BE11A6A257D4}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0C9BD1A-5952-4EC6-A3BA-6785224BE29A}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4183,12 +3686,18 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="4698390" y="4042172"/>
-              <a:ext cx="915316" cy="369094"/>
+              <a:off x="5665450" y="2562225"/>
+              <a:ext cx="1697373" cy="343830"/>
             </a:xfrm>
-            <a:prstGeom prst="roundRect">
+            <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:ln>
           </xdr:spPr>
           <xdr:style>
             <a:lnRef idx="2">
@@ -4207,23 +3716,60 @@
             </a:fontRef>
           </xdr:style>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
             <a:lstStyle/>
             <a:p>
-              <a:pPr algn="ctr"/>
+              <a:pPr algn="l"/>
               <a:r>
-                <a:rPr lang="en-US" sz="1100"/>
-                <a:t>Save</a:t>
+                <a:rPr lang="en-US" sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="bg1"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>noise</a:t>
               </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="bg1"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t> 1</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+              </a:endParaRPr>
             </a:p>
           </xdr:txBody>
         </xdr:sp>
+      </xdr:grpSp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="90" name="Group 89">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1406A154-8FD7-4313-B062-2BCD84C82FF7}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="4447443" y="2909207"/>
+            <a:ext cx="2888271" cy="343830"/>
+            <a:chOff x="4467226" y="2562225"/>
+            <a:chExt cx="2895598" cy="343830"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="94" name="Rectangle: Rounded Corners 93">
+            <xdr:cNvPr id="99" name="Rectangle 98">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A59C27AA-5583-4D48-88C6-EB2D13064734}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24717A38-74EA-499F-82D2-F5C9D9731911}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4231,17 +3777,18 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="5983714" y="4045744"/>
-              <a:ext cx="915317" cy="369094"/>
+              <a:off x="4467226" y="2562225"/>
+              <a:ext cx="1197428" cy="343830"/>
             </a:xfrm>
-            <a:prstGeom prst="roundRect">
+            <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:solidFill>
-              <a:schemeClr val="bg1">
-                <a:lumMod val="50000"/>
-              </a:schemeClr>
-            </a:solidFill>
+            <a:noFill/>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:ln>
           </xdr:spPr>
           <xdr:style>
             <a:lnRef idx="2">
@@ -4260,19 +3807,517 @@
             </a:fontRef>
           </xdr:style>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
             <a:lstStyle/>
             <a:p>
-              <a:pPr algn="ctr"/>
+              <a:pPr algn="l"/>
               <a:r>
-                <a:rPr lang="en-US" sz="1100"/>
-                <a:t>Cancel</a:t>
+                <a:rPr lang="en-US" sz="950">
+                  <a:solidFill>
+                    <a:schemeClr val="bg1"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>Noise</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="950" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="bg1"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t> value:</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="950">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="100" name="Rectangle 99">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B52A462-C713-4738-A99C-612FE2070748}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5667375" y="2562225"/>
+              <a:ext cx="1695449" cy="343830"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="bg1"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>100 (dB)</a:t>
               </a:r>
             </a:p>
           </xdr:txBody>
         </xdr:sp>
       </xdr:grpSp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="91" name="Group 90">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A38BA896-E879-4331-B1A4-CA2E460FE7C5}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="4447443" y="3267075"/>
+            <a:ext cx="2888271" cy="343830"/>
+            <a:chOff x="4467226" y="2562225"/>
+            <a:chExt cx="2895598" cy="343830"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="97" name="Rectangle 96">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2756F97C-29F0-4639-98E7-C6B3A8BB2372}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4467226" y="2562225"/>
+              <a:ext cx="1197428" cy="343830"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr lang="en-US" sz="950">
+                  <a:solidFill>
+                    <a:schemeClr val="bg1"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>Measurement time:</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="98" name="Rectangle 97">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72DB2C7D-0891-4B05-94D8-7F7B66C028BF}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5664654" y="2562225"/>
+              <a:ext cx="1698170" cy="343830"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="bg1"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>20 (s)</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="92" name="Group 91">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9CBFB61E-3E16-468B-99ED-CEB99D824721}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="4447443" y="3615418"/>
+            <a:ext cx="2888271" cy="343830"/>
+            <a:chOff x="4467226" y="2562225"/>
+            <a:chExt cx="2895598" cy="343830"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="95" name="Rectangle 94">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C339AE2B-9016-45B1-BCDA-623576293E32}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4467226" y="2562225"/>
+              <a:ext cx="1197428" cy="343830"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr lang="en-US" sz="950">
+                  <a:solidFill>
+                    <a:schemeClr val="bg1"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>Current time:</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="96" name="Rectangle 95">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E60CE25E-E00E-4F87-9E95-24AF38CFFE95}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5664654" y="2562225"/>
+              <a:ext cx="1698170" cy="343830"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="bg1"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>19:20:00 13/09/2021</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="93" name="Rectangle: Rounded Corners 92">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9EF5BF6A-0B69-46D8-9BCA-BE11A6A257D4}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4698390" y="4042172"/>
+            <a:ext cx="915316" cy="369094"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100"/>
+              <a:t>Save</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="94" name="Rectangle: Rounded Corners 93">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A59C27AA-5583-4D48-88C6-EB2D13064734}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5983714" y="4045744"/>
+            <a:ext cx="915317" cy="369094"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100"/>
+              <a:t>Cancel</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
     </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>403412</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>49258</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>123265</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Picture 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2C0B4EB-A9A8-45A9-B3D4-F34553883086}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15340853" y="1001758"/>
+          <a:ext cx="324971" cy="331741"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -4657,7 +4702,7 @@
   <dimension ref="A1:W42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="AD28" sqref="AD28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
